--- a/data/hanzo-cloud/hanzo-cloud-common_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-cloud-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8960" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8987" uniqueCount="798">
   <si>
     <t>Class Name</t>
   </si>
@@ -1563,226 +1563,241 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>LEFT_CHEV</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
     <t>RIGHT_BRACE</t>
   </si>
   <si>
+    <t>AMPERSAND</t>
+  </si>
+  <si>
+    <t>RIGHT_CHEV</t>
+  </si>
+  <si>
+    <t>DOT_JAVA</t>
+  </si>
+  <si>
+    <t>BACKTICK</t>
+  </si>
+  <si>
+    <t>SEMICOLON</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>DOLLAR</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>DOUBLE_COLON</t>
+  </si>
+  <si>
+    <t>HASH_LEFT_BRACE</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>DOLLAR_LEFT_BRACE</t>
+  </si>
+  <si>
+    <t>ISO_8859_1</t>
+  </si>
+  <si>
+    <t>PIPE</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>DOT_NEWLINE</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>DOT_CLASS</t>
+  </si>
+  <si>
+    <t>NEWLINE</t>
+  </si>
+  <si>
+    <t>BACK_SLASH</t>
+  </si>
+  <si>
+    <t>DOUBLE_DOT</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>CRLF</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>QUESTION_MARK</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>LEFT_BRACE</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>UNDERSCORE</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>UNDER_LINE</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>UTF_8</t>
+  </si>
+  <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>EXCLAMATION_MARK</t>
+  </si>
+  <si>
+    <t>ASTERISK</t>
+  </si>
+  <si>
+    <t>HAT</t>
+  </si>
+  <si>
+    <t>COLON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>HASH</t>
+  </si>
+  <si>
+    <t>DOT_XML</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TILDA</t>
+  </si>
+  <si>
+    <t>US_ASCII</t>
+  </si>
+  <si>
+    <t>RIGHT_SQ_BRACKET</t>
+  </si>
+  <si>
+    <t>SINGLE_QUOTE</t>
+  </si>
+  <si>
     <t>LEFT_SQ_BRACKET</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>ASTERISK</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>DOT_NEWLINE</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>ISO_8859_1</t>
-  </si>
-  <si>
-    <t>AMPERSAND</t>
-  </si>
-  <si>
-    <t>DOLLAR</t>
-  </si>
-  <si>
-    <t>DOT_CLASS</t>
-  </si>
-  <si>
-    <t>RIGHT_SQ_BRACKET</t>
-  </si>
-  <si>
-    <t>QUESTION_MARK</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>DOUBLE_DOT</t>
-  </si>
-  <si>
-    <t>SPACE</t>
-  </si>
-  <si>
-    <t>NEWLINE</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>SEMICOLON</t>
-  </si>
-  <si>
-    <t>PERCENT</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
-  </si>
-  <si>
-    <t>ZERO</t>
-  </si>
-  <si>
-    <t>CRLF</t>
-  </si>
-  <si>
-    <t>HAT</t>
-  </si>
-  <si>
-    <t>HASH</t>
-  </si>
-  <si>
-    <t>EMPTY</t>
-  </si>
-  <si>
-    <t>RIGHT_CHEV</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>UNDERSCORE</t>
-  </si>
-  <si>
-    <t>DOLLAR_LEFT_BRACE</t>
-  </si>
-  <si>
-    <t>LEFT_BRACE</t>
-  </si>
-  <si>
-    <t>TILDA</t>
-  </si>
-  <si>
-    <t>QUOTE</t>
-  </si>
-  <si>
-    <t>DOUBLE_COLON</t>
-  </si>
-  <si>
-    <t>EXCLAMATION_MARK</t>
-  </si>
-  <si>
-    <t>BACK_SLASH</t>
-  </si>
-  <si>
-    <t>UNDER_LINE</t>
-  </si>
-  <si>
-    <t>LEFT_CHEV</t>
-  </si>
-  <si>
-    <t>UTF_8</t>
+    <t>SLASH</t>
   </si>
   <si>
     <t>AT</t>
   </si>
   <si>
-    <t>ONE</t>
-  </si>
-  <si>
-    <t>DOT_XML</t>
+    <t>RIGHT_BRACKET</t>
   </si>
   <si>
     <t>TAB</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SINGLE_QUOTE</t>
-  </si>
-  <si>
-    <t>US_ASCII</t>
-  </si>
-  <si>
-    <t>DOT_JAVA</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>BACKTICK</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
-    <t>HASH_LEFT_BRACE</t>
-  </si>
-  <si>
-    <t>PIPE</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>SLASH</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>EQUALS</t>
-  </si>
-  <si>
-    <t>PLUS</t>
-  </si>
-  <si>
-    <t>COLON</t>
-  </si>
-  <si>
     <t>errorCode</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>FILE_DOWNLOAD_EXCEPTION</t>
+  </si>
+  <si>
+    <t>HAN_ZO_EXCEPTION</t>
+  </si>
+  <si>
+    <t>VALIDATE_CODE_EXCEPTION</t>
+  </si>
+  <si>
+    <t>METHOD_NOT_SUPPORTED</t>
+  </si>
+  <si>
+    <t>REQUEST_METHOD</t>
   </si>
   <si>
     <t>HAN_ZO_TRANSACTION_EXCEPTION</t>
   </si>
   <si>
-    <t>HAN_ZO_EXCEPTION</t>
-  </si>
-  <si>
-    <t>METHOD_NOT_SUPPORTED</t>
-  </si>
-  <si>
-    <t>REQUEST_METHOD</t>
-  </si>
-  <si>
-    <t>MEDIA_TYPE</t>
-  </si>
-  <si>
-    <t>FILE_DOWNLOAD_EXCEPTION</t>
-  </si>
-  <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
-    <t>VALIDATE_CODE_EXCEPTION</t>
+    <t>PASSWORD_THREAD_LOCAL</t>
+  </si>
+  <si>
+    <t>java.lang.ThreadLocal</t>
+  </si>
+  <si>
+    <t>SOCIAL_LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>SOCIAL_LOGIN</t>
   </si>
   <si>
     <t>USERNAME</t>
@@ -1791,19 +1806,43 @@
     <t>NOT_BIND</t>
   </si>
   <si>
-    <t>SOCIAL_LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>PASSWORD_THREAD_LOCAL</t>
-  </si>
-  <si>
-    <t>java.lang.ThreadLocal</t>
-  </si>
-  <si>
-    <t>SOCIAL_LOGIN</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>deptName</t>
@@ -1812,132 +1851,96 @@
     <t>deptIds</t>
   </si>
   <si>
-    <t>theme</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>deptId</t>
   </si>
   <si>
     <t>isTab</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>deptId</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>lastLoginTime</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>modifyTime</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>FULL_TIME_PATTERN</t>
+  </si>
+  <si>
+    <t>FULL_TIME</t>
   </si>
   <si>
     <t>CST_TIME_PATTERN</t>
   </si>
   <si>
-    <t>FULL_TIME_PATTERN</t>
-  </si>
-  <si>
     <t>FULL_TIME_SPLIT_PATTERN</t>
   </si>
   <si>
-    <t>FULL_TIME</t>
+    <t>tenantId</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>executeTime</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>updateBy</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>createBy</t>
+  </si>
+  <si>
+    <t>traceId</t>
+  </si>
+  <si>
+    <t>operation</t>
   </si>
   <si>
     <t>isDeleted</t>
   </si>
   <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>traceId</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>executeTime</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>createBy</t>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
-    <t>updateBy</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>tenantId</t>
-  </si>
-  <si>
-    <t>exception</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>LOG_TRACE_ID</t>
+  </si>
+  <si>
     <t>HANZO_TRACE_ID</t>
   </si>
   <si>
-    <t>LOG_TRACE_ID</t>
-  </si>
-  <si>
     <t>pageSize</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>totalPage</t>
   </si>
   <si>
@@ -1947,9 +1950,6 @@
     <t>pageNum</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>userHolder</t>
   </si>
   <si>
@@ -1965,58 +1965,64 @@
     <t>java.lang.String[]</t>
   </si>
   <si>
+    <t>CONNECT_TIMEOUT</t>
+  </si>
+  <si>
     <t>ENCODING</t>
   </si>
   <si>
     <t>SOCKET_TIMEOUT</t>
   </si>
   <si>
-    <t>CONNECT_TIMEOUT</t>
-  </si>
-  <si>
     <t>swaggerParamConfig</t>
   </si>
   <si>
     <t>asyncParamConfig</t>
   </si>
   <si>
+    <t>OAUTH2_TOKEN_TYPE</t>
+  </si>
+  <si>
+    <t>CAPTCHA_HEADER_CODE</t>
+  </si>
+  <si>
+    <t>GATEWAY_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>LOGIN_MOBILE_TYPE</t>
+  </si>
+  <si>
+    <t>LOGIN_USERNAME_TYPE</t>
+  </si>
+  <si>
+    <t>GATEWAY_TOKEN_VALUE</t>
+  </si>
+  <si>
+    <t>SIGN_KEY</t>
+  </si>
+  <si>
+    <t>AUTH_CODE_KEY</t>
+  </si>
+  <si>
+    <t>LOGIN_SOCIAL_TYPE</t>
+  </si>
+  <si>
     <t>CACHE_CLIENT_KEY</t>
   </si>
   <si>
-    <t>GATEWAY_TOKEN_VALUE</t>
-  </si>
-  <si>
-    <t>AUTH_CODE_KEY</t>
+    <t>CAPTCHA_KEY</t>
+  </si>
+  <si>
+    <t>CAPTCHA_HEADER_KEY</t>
   </si>
   <si>
     <t>SMS_CODE_KEY</t>
   </si>
   <si>
-    <t>CAPTCHA_KEY</t>
-  </si>
-  <si>
-    <t>LOGIN_MOBILE_TYPE</t>
-  </si>
-  <si>
-    <t>LOGIN_SOCIAL_TYPE</t>
-  </si>
-  <si>
-    <t>GATEWAY_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>LOGIN_USERNAME_TYPE</t>
-  </si>
-  <si>
-    <t>OAUTH2_TOKEN_TYPE</t>
-  </si>
-  <si>
-    <t>CAPTCHA_HEADER_KEY</t>
-  </si>
-  <si>
-    <t>SIGN_KEY</t>
-  </si>
-  <si>
-    <t>CAPTCHA_HEADER_CODE</t>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>org.springframework.core.env.Environment</t>
   </si>
   <si>
     <t>context</t>
@@ -2025,12 +2031,6 @@
     <t>org.springframework.context.ConfigurableApplicationContext</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>org.springframework.core.env.Environment</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
@@ -2040,60 +2040,60 @@
     <t>VALIDATE_FAILED</t>
   </si>
   <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>GATEWAY_FORBIDDEN</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>UNAUTHORIZED</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>GATEWAY_FORBIDDEN</t>
+    <t>TYPE_MENU</t>
   </si>
   <si>
     <t>ORDER_ASC</t>
   </si>
   <si>
+    <t>STATUS_LOCK</t>
+  </si>
+  <si>
+    <t>DEFAULT_AVATAR</t>
+  </si>
+  <si>
+    <t>SEX_FEMALE</t>
+  </si>
+  <si>
+    <t>TOP_MENU_ID</t>
+  </si>
+  <si>
+    <t>TYPE_BUTTON</t>
+  </si>
+  <si>
+    <t>REGISTER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>SEX_MALE</t>
+  </si>
+  <si>
+    <t>SYS_USER_EXCEL_PATH</t>
+  </si>
+  <si>
+    <t>SEX_UNKNOW</t>
+  </si>
+  <si>
     <t>DEFAULT_PASSWORD</t>
   </si>
   <si>
-    <t>TYPE_MENU</t>
-  </si>
-  <si>
-    <t>TOP_MENU_ID</t>
-  </si>
-  <si>
-    <t>SEX_MALE</t>
-  </si>
-  <si>
-    <t>REGISTER_ROLE_ID</t>
-  </si>
-  <si>
-    <t>DEFAULT_AVATAR</t>
-  </si>
-  <si>
-    <t>SEX_UNKNOW</t>
+    <t>ORDER_DESC</t>
   </si>
   <si>
     <t>STATUS_VALID</t>
   </si>
   <si>
-    <t>SYS_USER_EXCEL_PATH</t>
-  </si>
-  <si>
-    <t>TYPE_BUTTON</t>
-  </si>
-  <si>
-    <t>ORDER_DESC</t>
-  </si>
-  <si>
-    <t>SEX_FEMALE</t>
-  </si>
-  <si>
-    <t>STATUS_LOCK</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -2109,115 +2109,115 @@
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
     <t>enableSecurity</t>
   </si>
   <si>
+    <t>apiBasePackage</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
     <t>contactUrl</t>
   </si>
   <si>
-    <t>apiBasePackage</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>contactName</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
+    <t>IMPLICIT</t>
+  </si>
+  <si>
     <t>REFRESH_TOKEN</t>
   </si>
   <si>
     <t>CLIENT_CREDENTIALS</t>
   </si>
   <si>
-    <t>IMPLICIT</t>
-  </si>
-  <si>
     <t>AUTHORIZATION_CODE</t>
   </si>
   <si>
     <t>UNKNOWN</t>
   </si>
   <si>
+    <t>OAUTH_TOKEN</t>
+  </si>
+  <si>
+    <t>OAUTH_CONFIRM_ACCESS</t>
+  </si>
+  <si>
+    <t>ACTUATOR_ALL</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>OAUTH_AUTHORIZE</t>
+  </si>
+  <si>
+    <t>OAUTH_ALL</t>
+  </si>
+  <si>
+    <t>OAUTH_ERROR</t>
+  </si>
+  <si>
+    <t>OAUTH_TOKEN_KEY</t>
+  </si>
+  <si>
     <t>OAUTH_CHECK_TOKEN</t>
   </si>
   <si>
-    <t>OAUTH_TOKEN_KEY</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>OAUTH_TOKEN</t>
-  </si>
-  <si>
-    <t>OAUTH_CONFIRM_ACCESS</t>
-  </si>
-  <si>
-    <t>ACTUATOR_ALL</t>
-  </si>
-  <si>
-    <t>OAUTH_ERROR</t>
-  </si>
-  <si>
-    <t>OAUTH_AUTHORIZE</t>
-  </si>
-  <si>
-    <t>OAUTH_ALL</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
     <t>val$timeUnit</t>
   </si>
   <si>
     <t>java.util.concurrent.TimeUnit</t>
   </si>
   <si>
+    <t>val$time</t>
+  </si>
+  <si>
+    <t>val$rawValue</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
     <t>val$rawKey</t>
   </si>
   <si>
-    <t>val$time</t>
-  </si>
-  <si>
-    <t>val$rawValue</t>
-  </si>
-  <si>
-    <t>this$0</t>
+    <t>beanName</t>
+  </si>
+  <si>
+    <t>queueCapacity</t>
   </si>
   <si>
     <t>corePoolSize</t>
   </si>
   <si>
-    <t>beanName</t>
-  </si>
-  <si>
     <t>maxPoolSize</t>
   </si>
   <si>
+    <t>threadNamePrefix</t>
+  </si>
+  <si>
     <t>keepAliveSeconds</t>
   </si>
   <si>
-    <t>queueCapacity</t>
-  </si>
-  <si>
-    <t>threadNamePrefix</t>
-  </si>
-  <si>
     <t>ipLocal</t>
   </si>
   <si>
+    <t>VALIDATE_CODE_CODE</t>
+  </si>
+  <si>
     <t>VALIDATE_CODE_KEY</t>
   </si>
   <si>
     <t>GRANT_TYPE</t>
-  </si>
-  <si>
-    <t>VALIDATE_CODE_CODE</t>
   </si>
   <si>
     <t>LOGIN_TYPE</t>
@@ -20028,7 +20028,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C439"/>
+  <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20050,197 +20050,197 @@
         <v>26</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>776</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>765</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>783</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>776</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>756</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>756</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>756</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>756</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20">
@@ -20248,10 +20248,10 @@
         <v>68</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>756</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21">
@@ -20259,7 +20259,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>756</v>
@@ -20270,7 +20270,7 @@
         <v>68</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>756</v>
@@ -20281,7 +20281,7 @@
         <v>68</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>756</v>
@@ -20292,7 +20292,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>756</v>
@@ -20303,7 +20303,7 @@
         <v>68</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>756</v>
@@ -20314,7 +20314,7 @@
         <v>68</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>756</v>
@@ -20325,7 +20325,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>756</v>
@@ -20336,7 +20336,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>756</v>
@@ -20347,7 +20347,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>756</v>
@@ -20358,7 +20358,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>756</v>
@@ -20369,7 +20369,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>756</v>
@@ -20380,7 +20380,7 @@
         <v>68</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>756</v>
@@ -20391,7 +20391,7 @@
         <v>68</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>756</v>
@@ -20402,10 +20402,10 @@
         <v>68</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35">
@@ -20413,73 +20413,73 @@
         <v>68</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>740</v>
@@ -20487,10 +20487,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>740</v>
@@ -20501,10 +20501,10 @@
         <v>93</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="44">
@@ -20512,7 +20512,7 @@
         <v>93</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>740</v>
@@ -20523,7 +20523,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>740</v>
@@ -20534,7 +20534,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>740</v>
@@ -20545,7 +20545,7 @@
         <v>93</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>740</v>
@@ -20556,7 +20556,7 @@
         <v>93</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>740</v>
@@ -20567,7 +20567,7 @@
         <v>93</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>740</v>
@@ -20578,7 +20578,7 @@
         <v>93</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>740</v>
@@ -20589,7 +20589,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>740</v>
@@ -20600,7 +20600,7 @@
         <v>93</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>740</v>
@@ -20611,7 +20611,7 @@
         <v>93</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>740</v>
@@ -20622,10 +20622,10 @@
         <v>93</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55">
@@ -20633,10 +20633,10 @@
         <v>93</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="56">
@@ -20644,10 +20644,10 @@
         <v>93</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="57">
@@ -20655,10 +20655,10 @@
         <v>93</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="58">
@@ -20666,10 +20666,10 @@
         <v>93</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59">
@@ -20677,10 +20677,10 @@
         <v>93</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60">
@@ -20688,10 +20688,10 @@
         <v>93</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="61">
@@ -20699,7 +20699,7 @@
         <v>93</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>756</v>
@@ -20710,7 +20710,7 @@
         <v>93</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>756</v>
@@ -20721,7 +20721,7 @@
         <v>93</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>756</v>
@@ -20732,7 +20732,7 @@
         <v>93</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>756</v>
@@ -20743,7 +20743,7 @@
         <v>93</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>756</v>
@@ -20754,7 +20754,7 @@
         <v>93</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>756</v>
@@ -20765,7 +20765,7 @@
         <v>93</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>756</v>
@@ -20776,7 +20776,7 @@
         <v>93</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>756</v>
@@ -20787,7 +20787,7 @@
         <v>93</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>756</v>
@@ -20798,7 +20798,7 @@
         <v>93</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>756</v>
@@ -20809,10 +20809,10 @@
         <v>93</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>784</v>
+        <v>756</v>
       </c>
     </row>
     <row r="72">
@@ -20820,10 +20820,10 @@
         <v>93</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73">
@@ -20831,10 +20831,10 @@
         <v>93</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>785</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74">
@@ -20842,84 +20842,84 @@
         <v>93</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>739</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>739</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>739</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>748</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>779</v>
+        <v>740</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>748</v>
+        <v>785</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>740</v>
@@ -20927,87 +20927,87 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>786</v>
+        <v>739</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>740</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>740</v>
@@ -21018,10 +21018,10 @@
         <v>148</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91">
@@ -21029,10 +21029,10 @@
         <v>148</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="92">
@@ -21040,10 +21040,10 @@
         <v>148</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>740</v>
+        <v>786</v>
       </c>
     </row>
     <row r="93">
@@ -21051,7 +21051,7 @@
         <v>148</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>740</v>
@@ -21062,7 +21062,7 @@
         <v>148</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>740</v>
@@ -21070,21 +21070,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>740</v>
@@ -21092,10 +21092,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>740</v>
@@ -21103,10 +21103,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>740</v>
@@ -21114,21 +21114,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>740</v>
@@ -21136,10 +21136,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>740</v>
@@ -21147,10 +21147,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>740</v>
@@ -21158,21 +21158,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>740</v>
@@ -21180,76 +21180,76 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>783</v>
+        <v>740</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>787</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>740</v>
@@ -21257,98 +21257,98 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>740</v>
+        <v>787</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>740</v>
@@ -21356,21 +21356,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>740</v>
@@ -21378,10 +21378,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>740</v>
@@ -21389,10 +21389,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>740</v>
@@ -21400,13 +21400,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="126">
@@ -21414,7 +21414,7 @@
         <v>87</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>740</v>
@@ -21425,7 +21425,7 @@
         <v>87</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>740</v>
@@ -21436,7 +21436,7 @@
         <v>87</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>740</v>
@@ -21447,7 +21447,7 @@
         <v>87</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>740</v>
@@ -21458,7 +21458,7 @@
         <v>87</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>740</v>
@@ -21469,7 +21469,7 @@
         <v>87</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>740</v>
@@ -21480,7 +21480,7 @@
         <v>87</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>740</v>
@@ -21491,7 +21491,7 @@
         <v>87</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>740</v>
@@ -21502,7 +21502,7 @@
         <v>87</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>740</v>
@@ -21513,7 +21513,7 @@
         <v>87</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>740</v>
@@ -21524,7 +21524,7 @@
         <v>87</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>740</v>
@@ -21535,7 +21535,7 @@
         <v>87</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>740</v>
@@ -21546,7 +21546,7 @@
         <v>87</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>740</v>
@@ -21557,7 +21557,7 @@
         <v>87</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>740</v>
@@ -21568,7 +21568,7 @@
         <v>87</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>740</v>
@@ -21579,7 +21579,7 @@
         <v>87</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>740</v>
@@ -21590,7 +21590,7 @@
         <v>87</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>740</v>
@@ -21601,7 +21601,7 @@
         <v>87</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>740</v>
@@ -21612,7 +21612,7 @@
         <v>87</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>740</v>
@@ -21623,7 +21623,7 @@
         <v>87</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>740</v>
@@ -21634,7 +21634,7 @@
         <v>87</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>740</v>
@@ -21645,7 +21645,7 @@
         <v>87</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>740</v>
@@ -21656,7 +21656,7 @@
         <v>87</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>740</v>
@@ -21667,7 +21667,7 @@
         <v>87</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>740</v>
@@ -21678,7 +21678,7 @@
         <v>87</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>740</v>
@@ -21689,7 +21689,7 @@
         <v>87</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>740</v>
@@ -21700,7 +21700,7 @@
         <v>87</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>740</v>
@@ -21711,7 +21711,7 @@
         <v>87</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>740</v>
@@ -21722,7 +21722,7 @@
         <v>87</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>740</v>
@@ -21733,7 +21733,7 @@
         <v>87</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>740</v>
@@ -21744,7 +21744,7 @@
         <v>87</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>740</v>
@@ -21755,7 +21755,7 @@
         <v>87</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>740</v>
@@ -21766,10 +21766,10 @@
         <v>87</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>788</v>
+        <v>740</v>
       </c>
     </row>
     <row r="159">
@@ -21777,7 +21777,7 @@
         <v>87</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>740</v>
@@ -21788,10 +21788,10 @@
         <v>87</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>789</v>
+        <v>740</v>
       </c>
     </row>
     <row r="161">
@@ -21799,7 +21799,7 @@
         <v>87</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>740</v>
@@ -21810,10 +21810,10 @@
         <v>87</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163">
@@ -21821,62 +21821,62 @@
         <v>87</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>790</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>762</v>
+        <v>740</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>740</v>
+        <v>788</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>740</v>
@@ -21884,21 +21884,21 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>740</v>
@@ -21906,24 +21906,24 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>769</v>
+        <v>790</v>
       </c>
     </row>
     <row r="173">
@@ -21931,10 +21931,10 @@
         <v>238</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="174">
@@ -21942,10 +21942,10 @@
         <v>238</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>791</v>
+        <v>762</v>
       </c>
     </row>
     <row r="175">
@@ -21953,10 +21953,10 @@
         <v>238</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="176">
@@ -21964,10 +21964,10 @@
         <v>238</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>760</v>
+        <v>740</v>
       </c>
     </row>
     <row r="177">
@@ -21975,10 +21975,10 @@
         <v>238</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="178">
@@ -21986,10 +21986,10 @@
         <v>238</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="179">
@@ -21997,10 +21997,10 @@
         <v>238</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>764</v>
+        <v>740</v>
       </c>
     </row>
     <row r="180">
@@ -22008,29 +22008,29 @@
         <v>238</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>748</v>
+        <v>769</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>740</v>
@@ -22038,65 +22038,65 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>740</v>
+        <v>791</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>764</v>
@@ -22104,197 +22104,197 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>756</v>
+        <v>776</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>760</v>
+        <v>776</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>776</v>
+        <v>756</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>740</v>
@@ -22302,10 +22302,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>740</v>
@@ -22313,43 +22313,43 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>740</v>
@@ -22360,10 +22360,10 @@
         <v>301</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="213">
@@ -22371,10 +22371,10 @@
         <v>301</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="214">
@@ -22382,10 +22382,10 @@
         <v>301</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="215">
@@ -22393,7 +22393,7 @@
         <v>301</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>740</v>
@@ -22404,7 +22404,7 @@
         <v>301</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>740</v>
@@ -22415,7 +22415,7 @@
         <v>301</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>740</v>
@@ -22426,7 +22426,7 @@
         <v>301</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>740</v>
@@ -22437,7 +22437,7 @@
         <v>301</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>740</v>
@@ -22448,7 +22448,7 @@
         <v>301</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>740</v>
@@ -22459,7 +22459,7 @@
         <v>301</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>740</v>
@@ -22470,7 +22470,7 @@
         <v>301</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>740</v>
@@ -22481,7 +22481,7 @@
         <v>301</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>740</v>
@@ -22489,21 +22489,21 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>740</v>
@@ -22511,10 +22511,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>740</v>
@@ -22522,10 +22522,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>740</v>
@@ -22533,10 +22533,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>740</v>
@@ -22544,10 +22544,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>740</v>
@@ -22555,10 +22555,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>740</v>
@@ -22566,10 +22566,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>740</v>
@@ -22577,10 +22577,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>740</v>
@@ -22591,10 +22591,10 @@
         <v>321</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>792</v>
+        <v>748</v>
       </c>
     </row>
     <row r="234">
@@ -22602,7 +22602,7 @@
         <v>321</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>740</v>
@@ -22613,10 +22613,10 @@
         <v>321</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>764</v>
+        <v>740</v>
       </c>
     </row>
     <row r="236">
@@ -22624,7 +22624,7 @@
         <v>321</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>740</v>
@@ -22632,21 +22632,21 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>740</v>
@@ -22654,21 +22654,21 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>740</v>
@@ -22676,10 +22676,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>740</v>
@@ -22687,21 +22687,21 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>740</v>
+        <v>792</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>365</v>
+        <v>110</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>740</v>
@@ -22709,21 +22709,21 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>361</v>
+        <v>22</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>740</v>
@@ -22731,21 +22731,21 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>740</v>
@@ -22756,10 +22756,10 @@
         <v>333</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="249">
@@ -22767,7 +22767,7 @@
         <v>333</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>740</v>
@@ -22778,7 +22778,7 @@
         <v>333</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>740</v>
@@ -22789,10 +22789,10 @@
         <v>333</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="252">
@@ -22800,7 +22800,7 @@
         <v>333</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>740</v>
@@ -22811,7 +22811,7 @@
         <v>333</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>740</v>
@@ -22822,10 +22822,10 @@
         <v>333</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="255">
@@ -22833,7 +22833,7 @@
         <v>333</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>740</v>
@@ -22844,7 +22844,7 @@
         <v>333</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>740</v>
@@ -22855,7 +22855,7 @@
         <v>333</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>740</v>
@@ -22866,7 +22866,7 @@
         <v>333</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>740</v>
@@ -22877,7 +22877,7 @@
         <v>333</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>740</v>
@@ -22888,10 +22888,10 @@
         <v>333</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="261">
@@ -22899,7 +22899,7 @@
         <v>333</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>740</v>
@@ -22910,10 +22910,10 @@
         <v>333</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="263">
@@ -22921,10 +22921,10 @@
         <v>333</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="264">
@@ -22932,7 +22932,7 @@
         <v>333</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>740</v>
@@ -22943,7 +22943,7 @@
         <v>333</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>740</v>
@@ -22954,7 +22954,7 @@
         <v>333</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>740</v>
@@ -22965,7 +22965,7 @@
         <v>333</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>740</v>
@@ -22976,7 +22976,7 @@
         <v>333</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>740</v>
@@ -22987,7 +22987,7 @@
         <v>333</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>740</v>
@@ -22998,10 +22998,10 @@
         <v>333</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="271">
@@ -23009,10 +23009,10 @@
         <v>333</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="272">
@@ -23020,10 +23020,10 @@
         <v>333</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="273">
@@ -23031,7 +23031,7 @@
         <v>333</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>740</v>
@@ -23039,21 +23039,21 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>740</v>
@@ -23061,10 +23061,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>740</v>
@@ -23072,10 +23072,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>740</v>
@@ -23083,10 +23083,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>740</v>
@@ -23094,21 +23094,21 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>740</v>
@@ -23116,21 +23116,21 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>740</v>
@@ -23141,10 +23141,10 @@
         <v>372</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="284">
@@ -23152,7 +23152,7 @@
         <v>372</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>740</v>
@@ -23163,7 +23163,7 @@
         <v>372</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>740</v>
@@ -23174,7 +23174,7 @@
         <v>372</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>740</v>
@@ -23185,7 +23185,7 @@
         <v>372</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>740</v>
@@ -23196,7 +23196,7 @@
         <v>372</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>740</v>
@@ -23207,7 +23207,7 @@
         <v>372</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>740</v>
@@ -23218,7 +23218,7 @@
         <v>372</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>740</v>
@@ -23229,10 +23229,10 @@
         <v>372</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>793</v>
+        <v>740</v>
       </c>
     </row>
     <row r="292">
@@ -23240,7 +23240,7 @@
         <v>372</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>110</v>
+        <v>383</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>740</v>
@@ -23251,10 +23251,10 @@
         <v>372</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>22</v>
+        <v>375</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>794</v>
+        <v>740</v>
       </c>
     </row>
     <row r="294">
@@ -23262,7 +23262,7 @@
         <v>372</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>740</v>
@@ -23270,21 +23270,21 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>388</v>
+        <v>233</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>740</v>
@@ -23292,10 +23292,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>740</v>
@@ -23303,10 +23303,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>740</v>
@@ -23314,101 +23314,101 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>402</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>756</v>
+        <v>793</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>776</v>
+        <v>748</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>764</v>
+        <v>740</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="308">
@@ -23416,10 +23416,10 @@
         <v>392</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="309">
@@ -23427,10 +23427,10 @@
         <v>392</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="310">
@@ -23438,7 +23438,7 @@
         <v>392</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>761</v>
@@ -23446,112 +23446,112 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>795</v>
+        <v>764</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>786</v>
+        <v>740</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="321">
@@ -23559,10 +23559,10 @@
         <v>408</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="322">
@@ -23570,10 +23570,10 @@
         <v>408</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>769</v>
+        <v>751</v>
       </c>
     </row>
     <row r="323">
@@ -23581,10 +23581,10 @@
         <v>408</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="324">
@@ -23592,10 +23592,10 @@
         <v>408</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>761</v>
+        <v>795</v>
       </c>
     </row>
     <row r="325">
@@ -23603,10 +23603,10 @@
         <v>408</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="326">
@@ -23614,10 +23614,10 @@
         <v>408</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>740</v>
+        <v>786</v>
       </c>
     </row>
     <row r="327">
@@ -23625,10 +23625,10 @@
         <v>408</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="328">
@@ -23636,10 +23636,10 @@
         <v>408</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="329">
@@ -23647,10 +23647,10 @@
         <v>408</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
     <row r="330">
@@ -23658,7 +23658,7 @@
         <v>408</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>750</v>
@@ -23669,10 +23669,10 @@
         <v>408</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="332">
@@ -23680,10 +23680,10 @@
         <v>408</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>740</v>
+        <v>754</v>
       </c>
     </row>
     <row r="333">
@@ -23691,10 +23691,10 @@
         <v>408</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="334">
@@ -23702,10 +23702,10 @@
         <v>408</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>740</v>
+        <v>761</v>
       </c>
     </row>
     <row r="335">
@@ -23713,7 +23713,7 @@
         <v>408</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>740</v>
@@ -23724,10 +23724,10 @@
         <v>408</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>786</v>
+        <v>740</v>
       </c>
     </row>
     <row r="337">
@@ -23735,10 +23735,10 @@
         <v>408</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>786</v>
+        <v>750</v>
       </c>
     </row>
     <row r="338">
@@ -23746,10 +23746,10 @@
         <v>408</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="339">
@@ -23757,10 +23757,10 @@
         <v>408</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>768</v>
+        <v>750</v>
       </c>
     </row>
     <row r="340">
@@ -23768,10 +23768,10 @@
         <v>408</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="341">
@@ -23779,10 +23779,10 @@
         <v>408</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>786</v>
+        <v>740</v>
       </c>
     </row>
     <row r="342">
@@ -23790,10 +23790,10 @@
         <v>408</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>786</v>
+        <v>740</v>
       </c>
     </row>
     <row r="343">
@@ -23801,10 +23801,10 @@
         <v>408</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>786</v>
+        <v>740</v>
       </c>
     </row>
     <row r="344">
@@ -23812,10 +23812,10 @@
         <v>408</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>786</v>
+        <v>740</v>
       </c>
     </row>
     <row r="345">
@@ -23823,10 +23823,10 @@
         <v>408</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>750</v>
+        <v>786</v>
       </c>
     </row>
     <row r="346">
@@ -23834,10 +23834,10 @@
         <v>408</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>768</v>
+        <v>786</v>
       </c>
     </row>
     <row r="347">
@@ -23845,10 +23845,10 @@
         <v>408</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>750</v>
+        <v>786</v>
       </c>
     </row>
     <row r="348">
@@ -23856,7 +23856,7 @@
         <v>408</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>768</v>
@@ -23867,10 +23867,10 @@
         <v>408</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>750</v>
+        <v>786</v>
       </c>
     </row>
     <row r="350">
@@ -23878,7 +23878,7 @@
         <v>408</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>786</v>
@@ -23889,10 +23889,10 @@
         <v>408</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>756</v>
+        <v>786</v>
       </c>
     </row>
     <row r="352">
@@ -23900,10 +23900,10 @@
         <v>408</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>753</v>
+        <v>786</v>
       </c>
     </row>
     <row r="353">
@@ -23911,10 +23911,10 @@
         <v>408</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>761</v>
+        <v>786</v>
       </c>
     </row>
     <row r="354">
@@ -23922,10 +23922,10 @@
         <v>408</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="355">
@@ -23933,10 +23933,10 @@
         <v>408</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356">
@@ -23944,10 +23944,10 @@
         <v>408</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="357">
@@ -23955,40 +23955,40 @@
         <v>408</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>748</v>
+        <v>768</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>193</v>
+        <v>411</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>740</v>
+        <v>786</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>756</v>
@@ -23996,65 +23996,65 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>796</v>
+        <v>761</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>174</v>
+        <v>409</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>739</v>
+        <v>761</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>29</v>
+        <v>428</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>739</v>
+        <v>761</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>462</v>
+        <v>408</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="C366" t="s" s="0">
         <v>748</v>
@@ -24062,65 +24062,65 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>463</v>
+        <v>193</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>794</v>
+        <v>740</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>786</v>
+        <v>756</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>193</v>
+        <v>456</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>740</v>
+        <v>754</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>748</v>
+        <v>796</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>739</v>
@@ -24128,10 +24128,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="C373" t="s" s="0">
         <v>739</v>
@@ -24139,79 +24139,79 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>353</v>
+        <v>460</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>739</v>
+        <v>756</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>355</v>
+        <v>463</v>
       </c>
       <c r="C377" t="s" s="0">
-        <v>739</v>
+        <v>794</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>338</v>
+        <v>467</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>739</v>
+        <v>786</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="0">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>367</v>
+        <v>465</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="381">
@@ -24219,7 +24219,7 @@
         <v>468</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>739</v>
@@ -24230,7 +24230,7 @@
         <v>468</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>739</v>
@@ -24241,7 +24241,7 @@
         <v>468</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>739</v>
@@ -24252,7 +24252,7 @@
         <v>468</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>739</v>
@@ -24263,7 +24263,7 @@
         <v>468</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>739</v>
@@ -24274,7 +24274,7 @@
         <v>468</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>739</v>
@@ -24285,7 +24285,7 @@
         <v>468</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>739</v>
@@ -24296,7 +24296,7 @@
         <v>468</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>739</v>
@@ -24307,7 +24307,7 @@
         <v>468</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>739</v>
@@ -24318,7 +24318,7 @@
         <v>468</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>739</v>
@@ -24329,7 +24329,7 @@
         <v>468</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>739</v>
@@ -24340,7 +24340,7 @@
         <v>468</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>739</v>
@@ -24351,7 +24351,7 @@
         <v>468</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>739</v>
@@ -24362,7 +24362,7 @@
         <v>468</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>739</v>
@@ -24373,7 +24373,7 @@
         <v>468</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>739</v>
@@ -24384,7 +24384,7 @@
         <v>468</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>739</v>
@@ -24395,7 +24395,7 @@
         <v>468</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C397" t="s" s="0">
         <v>739</v>
@@ -24406,7 +24406,7 @@
         <v>468</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C398" t="s" s="0">
         <v>739</v>
@@ -24417,7 +24417,7 @@
         <v>468</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C399" t="s" s="0">
         <v>739</v>
@@ -24428,7 +24428,7 @@
         <v>468</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>739</v>
@@ -24439,7 +24439,7 @@
         <v>468</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>739</v>
@@ -24450,7 +24450,7 @@
         <v>468</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>739</v>
@@ -24461,7 +24461,7 @@
         <v>468</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>739</v>
@@ -24472,7 +24472,7 @@
         <v>468</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C404" t="s" s="0">
         <v>739</v>
@@ -24483,7 +24483,7 @@
         <v>468</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C405" t="s" s="0">
         <v>739</v>
@@ -24491,197 +24491,197 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="0">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="C406" t="s" s="0">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>756</v>
+        <v>739</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="0">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>471</v>
+        <v>354</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>776</v>
+        <v>739</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="0">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>473</v>
+        <v>350</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="0">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>475</v>
+        <v>351</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="0">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="C411" t="s" s="0">
-        <v>764</v>
+        <v>739</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="0">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>476</v>
+        <v>371</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>481</v>
+        <v>342</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>776</v>
+        <v>739</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="0">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s" s="0">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="0">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="C421" t="s" s="0">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s" s="0">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="0">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C423" t="s" s="0">
         <v>740</v>
@@ -24689,10 +24689,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="0">
-        <v>272</v>
+        <v>474</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C424" t="s" s="0">
         <v>740</v>
@@ -24703,7 +24703,7 @@
         <v>272</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C425" t="s" s="0">
         <v>740</v>
@@ -24714,7 +24714,7 @@
         <v>272</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C426" t="s" s="0">
         <v>740</v>
@@ -24725,7 +24725,7 @@
         <v>272</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C427" t="s" s="0">
         <v>740</v>
@@ -24736,10 +24736,10 @@
         <v>272</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>5</v>
+        <v>497</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>797</v>
+        <v>740</v>
       </c>
     </row>
     <row r="429">
@@ -24747,7 +24747,7 @@
         <v>272</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="C429" t="s" s="0">
         <v>740</v>
@@ -24758,10 +24758,10 @@
         <v>272</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>22</v>
+        <v>495</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>768</v>
+        <v>740</v>
       </c>
     </row>
     <row r="431">
@@ -24769,7 +24769,7 @@
         <v>272</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="C431" t="s" s="0">
         <v>740</v>
@@ -24780,10 +24780,10 @@
         <v>272</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C432" t="s" s="0">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="433">
@@ -24791,29 +24791,29 @@
         <v>272</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C433" t="s" s="0">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>498</v>
+        <v>272</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>498</v>
+        <v>272</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C435" t="s" s="0">
         <v>740</v>
@@ -24821,45 +24821,144 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C436" t="s" s="0">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>740</v>
+        <v>797</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="0">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>504</v>
+        <v>110</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
         <v>501</v>
       </c>
-      <c r="B439" t="s" s="0">
+      <c r="B445" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B448" t="s" s="0">
         <v>505</v>
       </c>
-      <c r="C439" t="s" s="0">
+      <c r="C448" t="s" s="0">
         <v>740</v>
       </c>
     </row>
@@ -25824,7 +25923,7 @@
         <v>31</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -25832,7 +25931,7 @@
         <v>26</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>31</v>
@@ -25852,7 +25951,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69">
@@ -25978,7 +26077,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>13</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78">
@@ -25986,7 +26085,7 @@
         <v>65</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
@@ -26000,7 +26099,7 @@
         <v>65</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
@@ -26014,13 +26113,13 @@
         <v>65</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>591</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -26146,7 +26245,7 @@
         <v>143</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>117</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -26160,7 +26259,7 @@
         <v>143</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -26174,7 +26273,7 @@
         <v>143</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
@@ -26216,7 +26315,7 @@
         <v>143</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>198</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -26258,7 +26357,7 @@
         <v>143</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>198</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -26286,7 +26385,7 @@
         <v>143</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
@@ -26314,7 +26413,7 @@
         <v>143</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -26392,13 +26491,13 @@
         <v>93</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
@@ -26406,13 +26505,13 @@
         <v>93</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
@@ -26420,13 +26519,13 @@
         <v>93</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
@@ -26434,7 +26533,7 @@
         <v>93</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>143</v>
@@ -26448,7 +26547,7 @@
         <v>93</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>143</v>
@@ -26496,7 +26595,7 @@
         <v>143</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -26504,13 +26603,13 @@
         <v>93</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
@@ -26518,7 +26617,7 @@
         <v>93</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>143</v>
@@ -26532,7 +26631,7 @@
         <v>93</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>143</v>
@@ -26546,7 +26645,7 @@
         <v>93</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>143</v>
@@ -26560,7 +26659,7 @@
         <v>93</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>143</v>
@@ -26574,13 +26673,13 @@
         <v>93</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -26588,7 +26687,7 @@
         <v>93</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>143</v>
@@ -26616,7 +26715,7 @@
         <v>93</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>143</v>
@@ -26706,7 +26805,7 @@
         <v>143</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
@@ -26720,7 +26819,7 @@
         <v>143</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131">
@@ -26734,7 +26833,7 @@
         <v>143</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132">
@@ -26748,7 +26847,7 @@
         <v>143</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133">
@@ -26762,7 +26861,7 @@
         <v>143</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="134">
@@ -26776,7 +26875,7 @@
         <v>31</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -26790,7 +26889,7 @@
         <v>31</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136">
@@ -26798,7 +26897,7 @@
         <v>167</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>143</v>
@@ -26868,7 +26967,7 @@
         <v>87</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>143</v>
@@ -26882,13 +26981,13 @@
         <v>87</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143">
@@ -26896,13 +26995,13 @@
         <v>87</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>289</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -26910,13 +27009,13 @@
         <v>87</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -26924,13 +27023,13 @@
         <v>87</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146">
@@ -26938,13 +27037,13 @@
         <v>87</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147">
@@ -26958,7 +27057,7 @@
         <v>143</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -26966,7 +27065,7 @@
         <v>87</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>143</v>
@@ -26980,13 +27079,13 @@
         <v>87</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -26994,7 +27093,7 @@
         <v>87</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>143</v>
@@ -27008,13 +27107,13 @@
         <v>87</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>198</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -27022,7 +27121,7 @@
         <v>87</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>143</v>
@@ -27036,7 +27135,7 @@
         <v>87</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>143</v>
@@ -27050,13 +27149,13 @@
         <v>87</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155">
@@ -27064,7 +27163,7 @@
         <v>87</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>143</v>
@@ -27078,7 +27177,7 @@
         <v>87</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>143</v>
@@ -27092,7 +27191,7 @@
         <v>87</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>143</v>
@@ -27106,7 +27205,7 @@
         <v>87</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>143</v>
@@ -27120,13 +27219,13 @@
         <v>87</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>198</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
@@ -27134,13 +27233,13 @@
         <v>87</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161">
@@ -27148,13 +27247,13 @@
         <v>87</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>13</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162">
@@ -27168,7 +27267,7 @@
         <v>143</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -27182,7 +27281,7 @@
         <v>143</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
@@ -27280,7 +27379,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
@@ -27294,7 +27393,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
@@ -27308,7 +27407,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -27322,7 +27421,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
@@ -27484,13 +27583,13 @@
         <v>277</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186">
@@ -27498,7 +27597,7 @@
         <v>277</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>6</v>
@@ -27515,10 +27614,10 @@
         <v>673</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188">
@@ -27526,13 +27625,13 @@
         <v>277</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="189">
@@ -27540,7 +27639,7 @@
         <v>277</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>6</v>
@@ -27554,7 +27653,7 @@
         <v>277</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>675</v>
+        <v>579</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>6</v>
@@ -27616,7 +27715,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -27672,7 +27771,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="199">
@@ -27764,10 +27863,10 @@
         <v>293</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D205" t="s" s="0">
         <v>289</v>
@@ -27784,7 +27883,7 @@
         <v>31</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -27798,7 +27897,7 @@
         <v>31</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208">
@@ -27806,10 +27905,10 @@
         <v>293</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D208" t="s" s="0">
         <v>289</v>
@@ -27823,10 +27922,10 @@
         <v>577</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
@@ -27834,7 +27933,7 @@
         <v>299</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>31</v>
@@ -27851,10 +27950,10 @@
         <v>578</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="212">
@@ -27904,13 +28003,13 @@
         <v>321</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>289</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -27918,7 +28017,7 @@
         <v>321</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>143</v>
@@ -27932,13 +28031,13 @@
         <v>321</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>637</v>
+        <v>692</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
@@ -27946,13 +28045,13 @@
         <v>321</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219">
@@ -27960,13 +28059,13 @@
         <v>321</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>692</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>13</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220">
@@ -28008,7 +28107,7 @@
         <v>143</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223">
@@ -28022,7 +28121,7 @@
         <v>143</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -28030,7 +28129,7 @@
         <v>372</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>143</v>
@@ -28044,7 +28143,7 @@
         <v>372</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>697</v>
+        <v>599</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>143</v>
@@ -28058,7 +28157,7 @@
         <v>372</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>143</v>
@@ -28072,7 +28171,7 @@
         <v>372</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>143</v>
@@ -28086,7 +28185,7 @@
         <v>372</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>632</v>
+        <v>699</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>143</v>
@@ -28120,7 +28219,7 @@
         <v>31</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -28128,10 +28227,10 @@
         <v>390</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D231" t="s" s="0">
         <v>289</v>
@@ -28145,10 +28244,10 @@
         <v>578</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="233">
@@ -28176,7 +28275,7 @@
         <v>31</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -28184,10 +28283,10 @@
         <v>406</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D235" t="s" s="0">
         <v>289</v>
@@ -28201,10 +28300,10 @@
         <v>578</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237">
@@ -28212,13 +28311,13 @@
         <v>408</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>633</v>
+        <v>694</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>634</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238">
@@ -28226,13 +28325,13 @@
         <v>408</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>694</v>
+        <v>633</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>143</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>480</v>
+        <v>634</v>
       </c>
     </row>
     <row r="239">
@@ -28254,7 +28353,7 @@
         <v>452</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>702</v>
+        <v>590</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>6</v>
@@ -28268,7 +28367,7 @@
         <v>452</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>6</v>
@@ -28282,7 +28381,7 @@
         <v>452</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>593</v>
+        <v>703</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>6</v>
@@ -28344,7 +28443,7 @@
         <v>31</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
@@ -28358,7 +28457,7 @@
         <v>31</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248">
@@ -28540,7 +28639,7 @@
         <v>31</v>
       </c>
       <c r="D260" t="s" s="0">
-        <v>418</v>
+        <v>289</v>
       </c>
     </row>
     <row r="261">
@@ -28554,7 +28653,7 @@
         <v>31</v>
       </c>
       <c r="D261" t="s" s="0">
-        <v>289</v>
+        <v>418</v>
       </c>
     </row>
     <row r="262">
@@ -28568,7 +28667,7 @@
         <v>31</v>
       </c>
       <c r="D262" t="s" s="0">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="263">
@@ -28582,7 +28681,7 @@
         <v>31</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="264">
@@ -28596,7 +28695,7 @@
         <v>143</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
@@ -28610,7 +28709,7 @@
         <v>143</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266">
@@ -28652,7 +28751,7 @@
         <v>143</v>
       </c>
       <c r="D268" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
@@ -28666,7 +28765,7 @@
         <v>143</v>
       </c>
       <c r="D269" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270">
@@ -33895,7 +33994,7 @@
         <v>277</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>738</v>
@@ -33912,7 +34011,7 @@
         <v>277</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>738</v>
@@ -33963,7 +34062,7 @@
         <v>277</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>738</v>
@@ -33997,7 +34096,7 @@
         <v>277</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>738</v>
@@ -34031,7 +34130,7 @@
         <v>277</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>738</v>
@@ -34048,7 +34147,7 @@
         <v>277</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>739</v>
